--- a/data/Makespans30.xlsx
+++ b/data/Makespans30.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA59EB-BF31-5348-84DF-71330EA4F4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="9040" windowWidth="16860" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,25 +49,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,28 +79,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,27 +165,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,24 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,16 +374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="I403" sqref="I403"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -468,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>183.3</v>
+        <v>127.4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -482,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>206.9</v>
+        <v>143.8</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -496,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>231</v>
+        <v>160.4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -510,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>241.3</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -524,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>243.5</v>
+        <v>156.2</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -538,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>212.8</v>
+        <v>157.7</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -552,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>193.6</v>
+        <v>126.9</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -566,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>246.6</v>
+        <v>162.2</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -580,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>239.6</v>
+        <v>163.8</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -594,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>224.6</v>
+        <v>137.8</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -608,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>215</v>
+        <v>150.1</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -622,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>259.39999999999998</v>
+        <v>172.2</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -636,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>199.7</v>
+        <v>149.4</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -650,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>221.4</v>
+        <v>146.7</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -664,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>228.5</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -678,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>200.6</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -692,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>222</v>
+        <v>148.8</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -706,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>237.1</v>
+        <v>162.4</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -720,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>201.1</v>
+        <v>138.1</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -734,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>201.5</v>
+        <v>146.6</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -748,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>215.7</v>
+        <v>144.4</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -762,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>251.4</v>
+        <v>152.7</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -776,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>219.6</v>
+        <v>149.9</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -790,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>249.4</v>
+        <v>150.1</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -804,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>206.9</v>
+        <v>130.7</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -818,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -832,7 +767,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -846,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>237.6</v>
+        <v>162.8</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -860,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>246.3</v>
+        <v>162.7</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -874,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>218</v>
+        <v>143.1</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -888,7 +823,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>205.3</v>
+        <v>141.1</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -902,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>232</v>
+        <v>155.9</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -916,7 +851,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>240.8</v>
+        <v>164.3</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -930,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>212.3</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -944,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>248.8</v>
+        <v>163.2</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -958,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>211.5</v>
+        <v>133.6</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -972,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>216.5</v>
+        <v>154.3</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -986,7 +921,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>264.60000000000002</v>
+        <v>156.8</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1000,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>246.3</v>
+        <v>151.6</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1014,7 +949,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>260.39999999999998</v>
+        <v>176.3</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1028,7 +963,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>236.5</v>
+        <v>162.7</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1042,7 +977,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>214.8</v>
+        <v>151.2</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1056,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>256.60000000000002</v>
+        <v>164.5</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1070,7 +1005,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>266.2</v>
+        <v>170.8</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1084,7 +1019,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>232.3</v>
+        <v>149.4</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1098,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>244.4</v>
+        <v>162.3</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1112,7 +1047,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>228.4</v>
+        <v>146.4</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1126,7 +1061,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>215.5</v>
+        <v>143.9</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1140,7 +1075,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>218.1</v>
+        <v>152.2</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1154,7 +1089,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>253.1</v>
+        <v>156.3</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1168,7 +1103,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>210.4</v>
+        <v>147.7</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1182,7 +1117,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>209.8</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1196,7 +1131,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>221.7</v>
+        <v>153.2</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1210,7 +1145,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>208.6</v>
+        <v>135.9</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1224,7 +1159,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>205.4</v>
+        <v>143.9</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1238,7 +1173,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>225.1</v>
+        <v>158.9</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1252,7 +1187,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>227.4</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1266,7 +1201,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>251.2</v>
+        <v>163.9</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1280,7 +1215,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>217.6</v>
+        <v>142.9</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1294,7 +1229,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>236.5</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1308,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>233</v>
+        <v>141.9</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1322,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>213.4</v>
+        <v>144.4</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1336,7 +1271,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>210.5</v>
+        <v>150.9</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1350,7 +1285,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>237</v>
+        <v>146.2</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1364,7 +1299,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>220.2</v>
+        <v>154.6</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1378,7 +1313,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>221.4</v>
+        <v>156.6</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1392,7 +1327,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>225.1</v>
+        <v>154.6</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1406,7 +1341,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>204.5</v>
+        <v>138.1</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1420,7 +1355,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>232.7</v>
+        <v>153.2</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1434,7 +1369,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>245.2</v>
+        <v>157.6</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1448,7 +1383,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>190.6</v>
+        <v>136.8</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1462,7 +1397,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>234.5</v>
+        <v>160.6</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1476,7 +1411,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>267.39999999999998</v>
+        <v>176.5</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1490,7 +1425,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>233.4</v>
+        <v>165.3</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1504,7 +1439,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>223.3</v>
+        <v>140.2</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1518,7 +1453,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>277.8</v>
+        <v>174.7</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1532,7 +1467,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>223.1</v>
+        <v>145.7</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -1546,7 +1481,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>197.1</v>
+        <v>138.4</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1560,7 +1495,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>229.4</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1574,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>223.7</v>
+        <v>138.6</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1588,7 +1523,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>213.5</v>
+        <v>138.7</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1602,7 +1537,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>225.1</v>
+        <v>155.2</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1616,7 +1551,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>211.2</v>
+        <v>140.2</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1630,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>222.8</v>
+        <v>145.7</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -1644,7 +1579,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>228.3</v>
+        <v>151.2</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1658,7 +1593,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>195.7</v>
+        <v>132.7</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1672,7 +1607,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>242.6</v>
+        <v>165.8</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1686,7 +1621,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>193</v>
+        <v>134.4</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1700,7 +1635,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>219.4</v>
+        <v>153.5</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -1714,7 +1649,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>206.6</v>
+        <v>134.9</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -1728,7 +1663,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>235</v>
+        <v>156.5</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1742,7 +1677,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>233.1</v>
+        <v>164.4</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -1756,7 +1691,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>227</v>
+        <v>154.5</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -1770,7 +1705,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>232.6</v>
+        <v>157.6</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1784,7 +1719,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>227.4</v>
+        <v>142.4</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -1798,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>229.1</v>
+        <v>146.7</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -1812,7 +1747,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>208</v>
+        <v>142.3</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1826,7 +1761,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>201.3</v>
+        <v>143.5</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -1840,7 +1775,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>235.2</v>
+        <v>151.8</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -1854,7 +1789,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>240.7</v>
+        <v>162.9</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -1896,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>154.30000000000001</v>
+        <v>154.3</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1910,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>154.80000000000001</v>
+        <v>154.8</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1938,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>158.30000000000001</v>
+        <v>158.3</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1952,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>132.69999999999999</v>
+        <v>132.7</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2022,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>163.80000000000001</v>
+        <v>163.8</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2050,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>143.30000000000001</v>
+        <v>143.3</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2148,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="B122">
-        <v>147.80000000000001</v>
+        <v>147.8</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2176,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="B124">
-        <v>142.80000000000001</v>
+        <v>142.8</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2204,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="B126">
-        <v>133.19999999999999</v>
+        <v>133.2</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2246,7 +2181,7 @@
         <v>28</v>
       </c>
       <c r="B129">
-        <v>158.69999999999999</v>
+        <v>158.7</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2330,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="B135">
-        <v>142.69999999999999</v>
+        <v>142.7</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2372,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="B138">
-        <v>149.19999999999999</v>
+        <v>149.2</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2386,7 +2321,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>156.80000000000001</v>
+        <v>156.8</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2400,7 +2335,7 @@
         <v>39</v>
       </c>
       <c r="B140">
-        <v>159.19999999999999</v>
+        <v>159.2</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2428,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="B142">
-        <v>163.80000000000001</v>
+        <v>163.8</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2456,7 +2391,7 @@
         <v>43</v>
       </c>
       <c r="B144">
-        <v>162.80000000000001</v>
+        <v>162.8</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2526,7 +2461,7 @@
         <v>48</v>
       </c>
       <c r="B149">
-        <v>138.80000000000001</v>
+        <v>138.8</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2582,7 +2517,7 @@
         <v>52</v>
       </c>
       <c r="B153">
-        <v>141.80000000000001</v>
+        <v>141.8</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2652,7 +2587,7 @@
         <v>57</v>
       </c>
       <c r="B158">
-        <v>152.80000000000001</v>
+        <v>152.8</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2666,7 +2601,7 @@
         <v>58</v>
       </c>
       <c r="B159">
-        <v>160.80000000000001</v>
+        <v>160.8</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2680,7 +2615,7 @@
         <v>59</v>
       </c>
       <c r="B160">
-        <v>138.30000000000001</v>
+        <v>138.3</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2750,7 +2685,7 @@
         <v>64</v>
       </c>
       <c r="B165">
-        <v>142.19999999999999</v>
+        <v>142.2</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2806,7 +2741,7 @@
         <v>68</v>
       </c>
       <c r="B169">
-        <v>137.80000000000001</v>
+        <v>137.8</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2862,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="B173">
-        <v>157.69999999999999</v>
+        <v>157.7</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2904,7 +2839,7 @@
         <v>75</v>
       </c>
       <c r="B176">
-        <v>143.69999999999999</v>
+        <v>143.7</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -2932,7 +2867,7 @@
         <v>77</v>
       </c>
       <c r="B178">
-        <v>146.19999999999999</v>
+        <v>146.2</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -2960,7 +2895,7 @@
         <v>79</v>
       </c>
       <c r="B180">
-        <v>139.80000000000001</v>
+        <v>139.8</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3002,7 +2937,7 @@
         <v>82</v>
       </c>
       <c r="B183">
-        <v>154.69999999999999</v>
+        <v>154.7</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3030,7 +2965,7 @@
         <v>84</v>
       </c>
       <c r="B185">
-        <v>139.19999999999999</v>
+        <v>139.2</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3058,7 +2993,7 @@
         <v>86</v>
       </c>
       <c r="B187">
-        <v>138.69999999999999</v>
+        <v>138.7</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3100,7 +3035,7 @@
         <v>89</v>
       </c>
       <c r="B190">
-        <v>152.30000000000001</v>
+        <v>152.3</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3114,7 +3049,7 @@
         <v>90</v>
       </c>
       <c r="B191">
-        <v>132.19999999999999</v>
+        <v>132.2</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3128,7 +3063,7 @@
         <v>91</v>
       </c>
       <c r="B192">
-        <v>148.69999999999999</v>
+        <v>148.7</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3156,7 +3091,7 @@
         <v>93</v>
       </c>
       <c r="B194">
-        <v>154.80000000000001</v>
+        <v>154.8</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3184,7 +3119,7 @@
         <v>95</v>
       </c>
       <c r="B196">
-        <v>141.80000000000001</v>
+        <v>141.8</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3212,7 +3147,7 @@
         <v>97</v>
       </c>
       <c r="B198">
-        <v>130.69999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3254,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="B201">
-        <v>153.69999999999999</v>
+        <v>153.7</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3338,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>161.30000000000001</v>
+        <v>161.3</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3408,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="B212">
-        <v>158.80000000000001</v>
+        <v>158.8</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -3450,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="B215">
-        <v>154.69999999999999</v>
+        <v>154.7</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -3590,7 +3525,7 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>161.19999999999999</v>
+        <v>161.2</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3604,7 +3539,7 @@
         <v>25</v>
       </c>
       <c r="B226">
-        <v>140.30000000000001</v>
+        <v>140.3</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -3688,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="B232">
-        <v>151.19999999999999</v>
+        <v>151.2</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -3884,7 +3819,7 @@
         <v>45</v>
       </c>
       <c r="B246">
-        <v>158.30000000000001</v>
+        <v>158.3</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -3982,7 +3917,7 @@
         <v>52</v>
       </c>
       <c r="B253">
-        <v>153.80000000000001</v>
+        <v>153.8</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -4010,7 +3945,7 @@
         <v>54</v>
       </c>
       <c r="B255">
-        <v>148.19999999999999</v>
+        <v>148.2</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -4024,7 +3959,7 @@
         <v>55</v>
       </c>
       <c r="B256">
-        <v>158.19999999999999</v>
+        <v>158.2</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -4052,7 +3987,7 @@
         <v>57</v>
       </c>
       <c r="B258">
-        <v>159.19999999999999</v>
+        <v>159.2</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4178,7 +4113,7 @@
         <v>66</v>
       </c>
       <c r="B267">
-        <v>163.19999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -4206,7 +4141,7 @@
         <v>68</v>
       </c>
       <c r="B269">
-        <v>152.80000000000001</v>
+        <v>152.8</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -4332,7 +4267,7 @@
         <v>77</v>
       </c>
       <c r="B278">
-        <v>159.69999999999999</v>
+        <v>159.7</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -4346,7 +4281,7 @@
         <v>78</v>
       </c>
       <c r="B279">
-        <v>147.69999999999999</v>
+        <v>147.7</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -4374,7 +4309,7 @@
         <v>80</v>
       </c>
       <c r="B281">
-        <v>158.19999999999999</v>
+        <v>158.2</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -4430,7 +4365,7 @@
         <v>84</v>
       </c>
       <c r="B285">
-        <v>161.80000000000001</v>
+        <v>161.8</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -4514,7 +4449,7 @@
         <v>90</v>
       </c>
       <c r="B291">
-        <v>143.80000000000001</v>
+        <v>143.8</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -4556,7 +4491,7 @@
         <v>93</v>
       </c>
       <c r="B294">
-        <v>162.19999999999999</v>
+        <v>162.2</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -4584,7 +4519,7 @@
         <v>95</v>
       </c>
       <c r="B296">
-        <v>154.30000000000001</v>
+        <v>154.3</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -4668,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <v>205.1</v>
+        <v>194.9</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -4682,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="B303">
-        <v>218.4</v>
+        <v>215.2</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -4696,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>236.3</v>
+        <v>227.4</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -4710,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>232.4</v>
+        <v>236.4</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -4724,7 +4659,7 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>246.7</v>
+        <v>229.8</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -4738,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>217.4</v>
+        <v>221.9</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -4752,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="B308">
-        <v>194.2</v>
+        <v>183.6</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -4766,7 +4701,7 @@
         <v>8</v>
       </c>
       <c r="B309">
-        <v>255.9</v>
+        <v>260</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -4780,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>246.5</v>
+        <v>224.7</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -4794,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="B311">
-        <v>211.4</v>
+        <v>224.1</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -4808,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>226</v>
+        <v>215.5</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -4822,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>255.6</v>
+        <v>250.9</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -4836,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="B314">
-        <v>228</v>
+        <v>228.2</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -4850,7 +4785,7 @@
         <v>14</v>
       </c>
       <c r="B315">
-        <v>212.4</v>
+        <v>219.1</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -4864,7 +4799,7 @@
         <v>15</v>
       </c>
       <c r="B316">
-        <v>235.8</v>
+        <v>204.7</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -4878,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="B317">
-        <v>214.2</v>
+        <v>227.2</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -4892,7 +4827,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>240.6</v>
+        <v>231.5</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
@@ -4906,7 +4841,7 @@
         <v>18</v>
       </c>
       <c r="B319">
-        <v>232.7</v>
+        <v>234.1</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -4920,7 +4855,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>190.8</v>
+        <v>218.4</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
@@ -4934,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>210.6</v>
+        <v>204.6</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -4948,7 +4883,7 @@
         <v>21</v>
       </c>
       <c r="B322">
-        <v>213.7</v>
+        <v>226.8</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -4962,7 +4897,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>241.1</v>
+        <v>250.5</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -4976,7 +4911,7 @@
         <v>23</v>
       </c>
       <c r="B324">
-        <v>223.5</v>
+        <v>209.9</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -4990,7 +4925,7 @@
         <v>24</v>
       </c>
       <c r="B325">
-        <v>236.3</v>
+        <v>238.3</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -5004,7 +4939,7 @@
         <v>25</v>
       </c>
       <c r="B326">
-        <v>194</v>
+        <v>208.1</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -5018,7 +4953,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <v>217.8</v>
+        <v>230.9</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -5032,7 +4967,7 @@
         <v>27</v>
       </c>
       <c r="B328">
-        <v>232.9</v>
+        <v>227.4</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -5046,7 +4981,7 @@
         <v>28</v>
       </c>
       <c r="B329">
-        <v>240.6</v>
+        <v>233.6</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
@@ -5060,7 +4995,7 @@
         <v>29</v>
       </c>
       <c r="B330">
-        <v>258.7</v>
+        <v>245.8</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -5074,7 +5009,7 @@
         <v>30</v>
       </c>
       <c r="B331">
-        <v>236.7</v>
+        <v>216.7</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -5088,7 +5023,7 @@
         <v>31</v>
       </c>
       <c r="B332">
-        <v>225</v>
+        <v>209.3</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -5102,7 +5037,7 @@
         <v>32</v>
       </c>
       <c r="B333">
-        <v>228</v>
+        <v>245.7</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
@@ -5116,7 +5051,7 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>238.8</v>
+        <v>238.6</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -5130,7 +5065,7 @@
         <v>34</v>
       </c>
       <c r="B335">
-        <v>227.6</v>
+        <v>216.9</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -5144,7 +5079,7 @@
         <v>35</v>
       </c>
       <c r="B336">
-        <v>244.6</v>
+        <v>254.6</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
@@ -5158,7 +5093,7 @@
         <v>36</v>
       </c>
       <c r="B337">
-        <v>218.1</v>
+        <v>211.8</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -5172,7 +5107,7 @@
         <v>37</v>
       </c>
       <c r="B338">
-        <v>223.8</v>
+        <v>215.2</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
@@ -5186,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="B339">
-        <v>250.4</v>
+        <v>242.6</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -5200,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="B340">
-        <v>236.1</v>
+        <v>243.7</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -5214,7 +5149,7 @@
         <v>40</v>
       </c>
       <c r="B341">
-        <v>286.8</v>
+        <v>265.2</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -5228,7 +5163,7 @@
         <v>41</v>
       </c>
       <c r="B342">
-        <v>245.4</v>
+        <v>236.6</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -5242,7 +5177,7 @@
         <v>42</v>
       </c>
       <c r="B343">
-        <v>217.4</v>
+        <v>208.5</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -5256,7 +5191,7 @@
         <v>43</v>
       </c>
       <c r="B344">
-        <v>242.6</v>
+        <v>258</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -5270,7 +5205,7 @@
         <v>44</v>
       </c>
       <c r="B345">
-        <v>258.39999999999998</v>
+        <v>253.3</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -5284,7 +5219,7 @@
         <v>45</v>
       </c>
       <c r="B346">
-        <v>217.1</v>
+        <v>218.1</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
@@ -5298,7 +5233,7 @@
         <v>46</v>
       </c>
       <c r="B347">
-        <v>251.5</v>
+        <v>241.9</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -5312,7 +5247,7 @@
         <v>47</v>
       </c>
       <c r="B348">
-        <v>226.3</v>
+        <v>212.8</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -5326,7 +5261,7 @@
         <v>48</v>
       </c>
       <c r="B349">
-        <v>210.1</v>
+        <v>213.8</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -5340,7 +5275,7 @@
         <v>49</v>
       </c>
       <c r="B350">
-        <v>237.1</v>
+        <v>213.6</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -5354,7 +5289,7 @@
         <v>50</v>
       </c>
       <c r="B351">
-        <v>247</v>
+        <v>241.9</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
@@ -5368,7 +5303,7 @@
         <v>51</v>
       </c>
       <c r="B352">
-        <v>209.5</v>
+        <v>221.8</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -5382,7 +5317,7 @@
         <v>52</v>
       </c>
       <c r="B353">
-        <v>219.1</v>
+        <v>206.9</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
@@ -5396,7 +5331,7 @@
         <v>53</v>
       </c>
       <c r="B354">
-        <v>214</v>
+        <v>215.2</v>
       </c>
       <c r="C354" t="s">
         <v>7</v>
@@ -5410,7 +5345,7 @@
         <v>54</v>
       </c>
       <c r="B355">
-        <v>216.1</v>
+        <v>202.7</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -5424,7 +5359,7 @@
         <v>55</v>
       </c>
       <c r="B356">
-        <v>223.5</v>
+        <v>200.4</v>
       </c>
       <c r="C356" t="s">
         <v>7</v>
@@ -5438,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="B357">
-        <v>242.2</v>
+        <v>236</v>
       </c>
       <c r="C357" t="s">
         <v>7</v>
@@ -5452,7 +5387,7 @@
         <v>57</v>
       </c>
       <c r="B358">
-        <v>233</v>
+        <v>231.2</v>
       </c>
       <c r="C358" t="s">
         <v>7</v>
@@ -5466,7 +5401,7 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>241.1</v>
+        <v>248.2</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -5480,7 +5415,7 @@
         <v>59</v>
       </c>
       <c r="B360">
-        <v>214.6</v>
+        <v>227.4</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
@@ -5494,7 +5429,7 @@
         <v>60</v>
       </c>
       <c r="B361">
-        <v>220</v>
+        <v>223.6</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
@@ -5508,7 +5443,7 @@
         <v>61</v>
       </c>
       <c r="B362">
-        <v>225.5</v>
+        <v>222.5</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -5522,7 +5457,7 @@
         <v>62</v>
       </c>
       <c r="B363">
-        <v>218</v>
+        <v>202.9</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -5536,7 +5471,7 @@
         <v>63</v>
       </c>
       <c r="B364">
-        <v>225.8</v>
+        <v>229</v>
       </c>
       <c r="C364" t="s">
         <v>7</v>
@@ -5550,7 +5485,7 @@
         <v>64</v>
       </c>
       <c r="B365">
-        <v>214.8</v>
+        <v>223.3</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
@@ -5564,7 +5499,7 @@
         <v>65</v>
       </c>
       <c r="B366">
-        <v>228.9</v>
+        <v>212.6</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -5578,7 +5513,7 @@
         <v>66</v>
       </c>
       <c r="B367">
-        <v>240.4</v>
+        <v>236.8</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
@@ -5592,7 +5527,7 @@
         <v>67</v>
       </c>
       <c r="B368">
-        <v>240.5</v>
+        <v>228.2</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
@@ -5606,7 +5541,7 @@
         <v>68</v>
       </c>
       <c r="B369">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
@@ -5620,7 +5555,7 @@
         <v>69</v>
       </c>
       <c r="B370">
-        <v>246.1</v>
+        <v>231.6</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
@@ -5634,7 +5569,7 @@
         <v>70</v>
       </c>
       <c r="B371">
-        <v>250.6</v>
+        <v>239.6</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -5648,7 +5583,7 @@
         <v>71</v>
       </c>
       <c r="B372">
-        <v>197.4</v>
+        <v>191</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -5662,7 +5597,7 @@
         <v>72</v>
       </c>
       <c r="B373">
-        <v>248</v>
+        <v>237.1</v>
       </c>
       <c r="C373" t="s">
         <v>7</v>
@@ -5676,7 +5611,7 @@
         <v>73</v>
       </c>
       <c r="B374">
-        <v>253.7</v>
+        <v>241.7</v>
       </c>
       <c r="C374" t="s">
         <v>7</v>
@@ -5690,7 +5625,7 @@
         <v>74</v>
       </c>
       <c r="B375">
-        <v>261.2</v>
+        <v>248.6</v>
       </c>
       <c r="C375" t="s">
         <v>7</v>
@@ -5704,7 +5639,7 @@
         <v>75</v>
       </c>
       <c r="B376">
-        <v>203.5</v>
+        <v>219</v>
       </c>
       <c r="C376" t="s">
         <v>7</v>
@@ -5718,7 +5653,7 @@
         <v>76</v>
       </c>
       <c r="B377">
-        <v>270.10000000000002</v>
+        <v>261.9</v>
       </c>
       <c r="C377" t="s">
         <v>7</v>
@@ -5732,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="B378">
-        <v>226.4</v>
+        <v>214.9</v>
       </c>
       <c r="C378" t="s">
         <v>7</v>
@@ -5746,7 +5681,7 @@
         <v>78</v>
       </c>
       <c r="B379">
-        <v>204.4</v>
+        <v>202.5</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5760,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="B380">
-        <v>220.1</v>
+        <v>223.6</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -5774,7 +5709,7 @@
         <v>80</v>
       </c>
       <c r="B381">
-        <v>212.2</v>
+        <v>220.9</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -5788,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="B382">
-        <v>208.2</v>
+        <v>209.5</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -5802,7 +5737,7 @@
         <v>82</v>
       </c>
       <c r="B383">
-        <v>247.7</v>
+        <v>226.4</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -5816,7 +5751,7 @@
         <v>83</v>
       </c>
       <c r="B384">
-        <v>226.4</v>
+        <v>205.8</v>
       </c>
       <c r="C384" t="s">
         <v>7</v>
@@ -5830,7 +5765,7 @@
         <v>84</v>
       </c>
       <c r="B385">
-        <v>229.3</v>
+        <v>203.4</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -5844,7 +5779,7 @@
         <v>85</v>
       </c>
       <c r="B386">
-        <v>224.4</v>
+        <v>234</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -5858,7 +5793,7 @@
         <v>86</v>
       </c>
       <c r="B387">
-        <v>189.8</v>
+        <v>211.1</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -5872,7 +5807,7 @@
         <v>87</v>
       </c>
       <c r="B388">
-        <v>259.8</v>
+        <v>250.6</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -5886,7 +5821,7 @@
         <v>88</v>
       </c>
       <c r="B389">
-        <v>196.9</v>
+        <v>206.3</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -5900,7 +5835,7 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>219.4</v>
+        <v>242.9</v>
       </c>
       <c r="C390" t="s">
         <v>7</v>
@@ -5914,7 +5849,7 @@
         <v>90</v>
       </c>
       <c r="B391">
-        <v>209.3</v>
+        <v>203.1</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -5928,7 +5863,7 @@
         <v>91</v>
       </c>
       <c r="B392">
-        <v>230.2</v>
+        <v>230.9</v>
       </c>
       <c r="C392" t="s">
         <v>7</v>
@@ -5942,7 +5877,7 @@
         <v>92</v>
       </c>
       <c r="B393">
-        <v>233.5</v>
+        <v>245.2</v>
       </c>
       <c r="C393" t="s">
         <v>7</v>
@@ -5956,7 +5891,7 @@
         <v>93</v>
       </c>
       <c r="B394">
-        <v>229.4</v>
+        <v>222.3</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -5970,7 +5905,7 @@
         <v>94</v>
       </c>
       <c r="B395">
-        <v>233.5</v>
+        <v>219.5</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -5984,7 +5919,7 @@
         <v>95</v>
       </c>
       <c r="B396">
-        <v>232.4</v>
+        <v>216.4</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -5998,7 +5933,7 @@
         <v>96</v>
       </c>
       <c r="B397">
-        <v>217.6</v>
+        <v>221</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -6012,7 +5947,7 @@
         <v>97</v>
       </c>
       <c r="B398">
-        <v>200.1</v>
+        <v>219</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -6026,7 +5961,7 @@
         <v>98</v>
       </c>
       <c r="B399">
-        <v>215.1</v>
+        <v>206.5</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -6040,7 +5975,7 @@
         <v>99</v>
       </c>
       <c r="B400">
-        <v>247.7</v>
+        <v>226.8</v>
       </c>
       <c r="C400" t="s">
         <v>7</v>
@@ -6054,7 +5989,7 @@
         <v>100</v>
       </c>
       <c r="B401">
-        <v>258</v>
+        <v>254.4</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
@@ -6067,9 +6002,6 @@
       <c r="A402">
         <v>1</v>
       </c>
-      <c r="B402" s="1">
-        <v>124.9</v>
-      </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
@@ -6081,9 +6013,6 @@
       <c r="A403">
         <v>2</v>
       </c>
-      <c r="B403" s="1">
-        <v>145.5</v>
-      </c>
       <c r="C403" t="s">
         <v>8</v>
       </c>
@@ -6095,9 +6024,6 @@
       <c r="A404">
         <v>3</v>
       </c>
-      <c r="B404" s="1">
-        <v>155.19999999999999</v>
-      </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
@@ -6109,9 +6035,6 @@
       <c r="A405">
         <v>4</v>
       </c>
-      <c r="B405" s="1">
-        <v>153.1</v>
-      </c>
       <c r="C405" t="s">
         <v>8</v>
       </c>
@@ -6123,9 +6046,6 @@
       <c r="A406">
         <v>5</v>
       </c>
-      <c r="B406" s="1">
-        <v>149.80000000000001</v>
-      </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
@@ -6137,9 +6057,6 @@
       <c r="A407">
         <v>6</v>
       </c>
-      <c r="B407" s="1">
-        <v>151.4</v>
-      </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
@@ -6151,9 +6068,6 @@
       <c r="A408">
         <v>7</v>
       </c>
-      <c r="B408" s="1">
-        <v>132.5</v>
-      </c>
       <c r="C408" t="s">
         <v>8</v>
       </c>
@@ -6165,9 +6079,6 @@
       <c r="A409">
         <v>8</v>
       </c>
-      <c r="B409" s="1">
-        <v>170.3</v>
-      </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
@@ -6178,9 +6089,6 @@
     <row r="410" spans="1:4">
       <c r="A410">
         <v>9</v>
-      </c>
-      <c r="B410" s="1">
-        <v>158.30000000000001</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -6193,9 +6101,6 @@
       <c r="A411">
         <v>10</v>
       </c>
-      <c r="B411" s="1">
-        <v>134.80000000000001</v>
-      </c>
       <c r="C411" t="s">
         <v>8</v>
       </c>
@@ -6207,9 +6112,6 @@
       <c r="A412">
         <v>11</v>
       </c>
-      <c r="B412" s="1">
-        <v>146.4</v>
-      </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
@@ -6221,9 +6123,6 @@
       <c r="A413">
         <v>12</v>
       </c>
-      <c r="B413" s="1">
-        <v>162.69999999999999</v>
-      </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
@@ -6235,9 +6134,6 @@
       <c r="A414">
         <v>13</v>
       </c>
-      <c r="B414" s="1">
-        <v>148.1</v>
-      </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
@@ -6249,9 +6145,6 @@
       <c r="A415">
         <v>14</v>
       </c>
-      <c r="B415" s="1">
-        <v>144.19999999999999</v>
-      </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
@@ -6263,9 +6156,6 @@
       <c r="A416">
         <v>15</v>
       </c>
-      <c r="B416" s="1">
-        <v>144.80000000000001</v>
-      </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
@@ -6277,9 +6167,6 @@
       <c r="A417">
         <v>16</v>
       </c>
-      <c r="B417" s="1">
-        <v>144.69999999999999</v>
-      </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
@@ -6291,9 +6178,6 @@
       <c r="A418">
         <v>17</v>
       </c>
-      <c r="B418" s="1">
-        <v>143.6</v>
-      </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
@@ -6305,9 +6189,6 @@
       <c r="A419">
         <v>18</v>
       </c>
-      <c r="B419" s="1">
-        <v>161.19999999999999</v>
-      </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
@@ -6319,9 +6200,6 @@
       <c r="A420">
         <v>19</v>
       </c>
-      <c r="B420" s="1">
-        <v>133.69999999999999</v>
-      </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
@@ -6333,9 +6211,6 @@
       <c r="A421">
         <v>20</v>
       </c>
-      <c r="B421" s="1">
-        <v>142.30000000000001</v>
-      </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
@@ -6347,9 +6222,6 @@
       <c r="A422">
         <v>21</v>
       </c>
-      <c r="B422" s="1">
-        <v>147.5</v>
-      </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
@@ -6361,9 +6233,6 @@
       <c r="A423">
         <v>22</v>
       </c>
-      <c r="B423" s="1">
-        <v>156.80000000000001</v>
-      </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
@@ -6375,9 +6244,6 @@
       <c r="A424">
         <v>23</v>
       </c>
-      <c r="B424" s="1">
-        <v>148.80000000000001</v>
-      </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
@@ -6389,9 +6255,6 @@
       <c r="A425">
         <v>24</v>
       </c>
-      <c r="B425" s="1">
-        <v>151.6</v>
-      </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
@@ -6403,9 +6266,6 @@
       <c r="A426">
         <v>25</v>
       </c>
-      <c r="B426" s="1">
-        <v>128.6</v>
-      </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
@@ -6417,9 +6277,6 @@
       <c r="A427">
         <v>26</v>
       </c>
-      <c r="B427" s="1">
-        <v>148.6</v>
-      </c>
       <c r="C427" t="s">
         <v>8</v>
       </c>
@@ -6431,9 +6288,6 @@
       <c r="A428">
         <v>27</v>
       </c>
-      <c r="B428" s="1">
-        <v>156</v>
-      </c>
       <c r="C428" t="s">
         <v>8</v>
       </c>
@@ -6445,9 +6299,6 @@
       <c r="A429">
         <v>28</v>
       </c>
-      <c r="B429" s="1">
-        <v>164.7</v>
-      </c>
       <c r="C429" t="s">
         <v>8</v>
       </c>
@@ -6459,9 +6310,6 @@
       <c r="A430">
         <v>29</v>
       </c>
-      <c r="B430" s="1">
-        <v>163</v>
-      </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
@@ -6473,9 +6321,6 @@
       <c r="A431">
         <v>30</v>
       </c>
-      <c r="B431" s="1">
-        <v>137.69999999999999</v>
-      </c>
       <c r="C431" t="s">
         <v>8</v>
       </c>
@@ -6487,9 +6332,6 @@
       <c r="A432">
         <v>31</v>
       </c>
-      <c r="B432" s="1">
-        <v>143.6</v>
-      </c>
       <c r="C432" t="s">
         <v>8</v>
       </c>
@@ -6501,9 +6343,6 @@
       <c r="A433">
         <v>32</v>
       </c>
-      <c r="B433" s="1">
-        <v>151.9</v>
-      </c>
       <c r="C433" t="s">
         <v>8</v>
       </c>
@@ -6515,9 +6354,6 @@
       <c r="A434">
         <v>33</v>
       </c>
-      <c r="B434" s="1">
-        <v>160.1</v>
-      </c>
       <c r="C434" t="s">
         <v>8</v>
       </c>
@@ -6529,9 +6365,6 @@
       <c r="A435">
         <v>34</v>
       </c>
-      <c r="B435" s="1">
-        <v>145.4</v>
-      </c>
       <c r="C435" t="s">
         <v>8</v>
       </c>
@@ -6543,9 +6376,6 @@
       <c r="A436">
         <v>35</v>
       </c>
-      <c r="B436" s="1">
-        <v>164.7</v>
-      </c>
       <c r="C436" t="s">
         <v>8</v>
       </c>
@@ -6557,9 +6387,6 @@
       <c r="A437">
         <v>36</v>
       </c>
-      <c r="B437" s="1">
-        <v>132.69999999999999</v>
-      </c>
       <c r="C437" t="s">
         <v>8</v>
       </c>
@@ -6571,9 +6398,6 @@
       <c r="A438">
         <v>37</v>
       </c>
-      <c r="B438" s="1">
-        <v>145.4</v>
-      </c>
       <c r="C438" t="s">
         <v>8</v>
       </c>
@@ -6585,9 +6409,6 @@
       <c r="A439">
         <v>38</v>
       </c>
-      <c r="B439" s="1">
-        <v>160.5</v>
-      </c>
       <c r="C439" t="s">
         <v>8</v>
       </c>
@@ -6599,9 +6420,6 @@
       <c r="A440">
         <v>39</v>
       </c>
-      <c r="B440" s="1">
-        <v>157.30000000000001</v>
-      </c>
       <c r="C440" t="s">
         <v>8</v>
       </c>
@@ -6613,9 +6431,6 @@
       <c r="A441">
         <v>40</v>
       </c>
-      <c r="B441" s="1">
-        <v>174.8</v>
-      </c>
       <c r="C441" t="s">
         <v>8</v>
       </c>
@@ -6627,9 +6442,6 @@
       <c r="A442">
         <v>41</v>
       </c>
-      <c r="B442" s="1">
-        <v>155</v>
-      </c>
       <c r="C442" t="s">
         <v>8</v>
       </c>
@@ -6641,9 +6453,6 @@
       <c r="A443">
         <v>42</v>
       </c>
-      <c r="B443" s="1">
-        <v>152.69999999999999</v>
-      </c>
       <c r="C443" t="s">
         <v>8</v>
       </c>
@@ -6655,9 +6464,6 @@
       <c r="A444">
         <v>43</v>
       </c>
-      <c r="B444" s="1">
-        <v>166.2</v>
-      </c>
       <c r="C444" t="s">
         <v>8</v>
       </c>
@@ -6669,9 +6475,6 @@
       <c r="A445">
         <v>44</v>
       </c>
-      <c r="B445" s="1">
-        <v>170.3</v>
-      </c>
       <c r="C445" t="s">
         <v>8</v>
       </c>
@@ -6683,9 +6486,6 @@
       <c r="A446">
         <v>45</v>
       </c>
-      <c r="B446" s="1">
-        <v>146.9</v>
-      </c>
       <c r="C446" t="s">
         <v>8</v>
       </c>
@@ -6697,9 +6497,6 @@
       <c r="A447">
         <v>46</v>
       </c>
-      <c r="B447" s="1">
-        <v>163.5</v>
-      </c>
       <c r="C447" t="s">
         <v>8</v>
       </c>
@@ -6711,9 +6508,6 @@
       <c r="A448">
         <v>47</v>
       </c>
-      <c r="B448" s="1">
-        <v>147.5</v>
-      </c>
       <c r="C448" t="s">
         <v>8</v>
       </c>
@@ -6725,9 +6519,6 @@
       <c r="A449">
         <v>48</v>
       </c>
-      <c r="B449" s="1">
-        <v>143.19999999999999</v>
-      </c>
       <c r="C449" t="s">
         <v>8</v>
       </c>
@@ -6739,9 +6530,6 @@
       <c r="A450">
         <v>49</v>
       </c>
-      <c r="B450" s="1">
-        <v>152.30000000000001</v>
-      </c>
       <c r="C450" t="s">
         <v>8</v>
       </c>
@@ -6753,9 +6541,6 @@
       <c r="A451">
         <v>50</v>
       </c>
-      <c r="B451" s="1">
-        <v>154.6</v>
-      </c>
       <c r="C451" t="s">
         <v>8</v>
       </c>
@@ -6767,9 +6552,6 @@
       <c r="A452">
         <v>51</v>
       </c>
-      <c r="B452" s="1">
-        <v>146.6</v>
-      </c>
       <c r="C452" t="s">
         <v>8</v>
       </c>
@@ -6781,9 +6563,6 @@
       <c r="A453">
         <v>52</v>
       </c>
-      <c r="B453" s="1">
-        <v>140.4</v>
-      </c>
       <c r="C453" t="s">
         <v>8</v>
       </c>
@@ -6795,9 +6574,6 @@
       <c r="A454">
         <v>53</v>
       </c>
-      <c r="B454" s="1">
-        <v>153.30000000000001</v>
-      </c>
       <c r="C454" t="s">
         <v>8</v>
       </c>
@@ -6809,9 +6585,6 @@
       <c r="A455">
         <v>54</v>
       </c>
-      <c r="B455" s="1">
-        <v>136.30000000000001</v>
-      </c>
       <c r="C455" t="s">
         <v>8</v>
       </c>
@@ -6823,9 +6596,6 @@
       <c r="A456">
         <v>55</v>
       </c>
-      <c r="B456" s="1">
-        <v>133.80000000000001</v>
-      </c>
       <c r="C456" t="s">
         <v>8</v>
       </c>
@@ -6837,9 +6607,6 @@
       <c r="A457">
         <v>56</v>
       </c>
-      <c r="B457" s="1">
-        <v>157.1</v>
-      </c>
       <c r="C457" t="s">
         <v>8</v>
       </c>
@@ -6851,9 +6618,6 @@
       <c r="A458">
         <v>57</v>
       </c>
-      <c r="B458" s="1">
-        <v>155.5</v>
-      </c>
       <c r="C458" t="s">
         <v>8</v>
       </c>
@@ -6865,9 +6629,6 @@
       <c r="A459">
         <v>58</v>
       </c>
-      <c r="B459" s="1">
-        <v>156.5</v>
-      </c>
       <c r="C459" t="s">
         <v>8</v>
       </c>
@@ -6879,9 +6640,6 @@
       <c r="A460">
         <v>59</v>
       </c>
-      <c r="B460" s="1">
-        <v>144.5</v>
-      </c>
       <c r="C460" t="s">
         <v>8</v>
       </c>
@@ -6893,9 +6651,6 @@
       <c r="A461">
         <v>60</v>
       </c>
-      <c r="B461" s="1">
-        <v>145.80000000000001</v>
-      </c>
       <c r="C461" t="s">
         <v>8</v>
       </c>
@@ -6907,9 +6662,6 @@
       <c r="A462">
         <v>61</v>
       </c>
-      <c r="B462" s="1">
-        <v>141.5</v>
-      </c>
       <c r="C462" t="s">
         <v>8</v>
       </c>
@@ -6921,9 +6673,6 @@
       <c r="A463">
         <v>62</v>
       </c>
-      <c r="B463" s="1">
-        <v>145.69999999999999</v>
-      </c>
       <c r="C463" t="s">
         <v>8</v>
       </c>
@@ -6935,9 +6684,6 @@
       <c r="A464">
         <v>63</v>
       </c>
-      <c r="B464" s="1">
-        <v>151.69999999999999</v>
-      </c>
       <c r="C464" t="s">
         <v>8</v>
       </c>
@@ -6949,9 +6695,6 @@
       <c r="A465">
         <v>64</v>
       </c>
-      <c r="B465" s="1">
-        <v>139.80000000000001</v>
-      </c>
       <c r="C465" t="s">
         <v>8</v>
       </c>
@@ -6963,9 +6706,6 @@
       <c r="A466">
         <v>65</v>
       </c>
-      <c r="B466" s="1">
-        <v>147.5</v>
-      </c>
       <c r="C466" t="s">
         <v>8</v>
       </c>
@@ -6977,9 +6717,6 @@
       <c r="A467">
         <v>66</v>
       </c>
-      <c r="B467" s="1">
-        <v>150.80000000000001</v>
-      </c>
       <c r="C467" t="s">
         <v>8</v>
       </c>
@@ -6991,9 +6728,6 @@
       <c r="A468">
         <v>67</v>
       </c>
-      <c r="B468" s="1">
-        <v>152</v>
-      </c>
       <c r="C468" t="s">
         <v>8</v>
       </c>
@@ -7005,9 +6739,6 @@
       <c r="A469">
         <v>68</v>
       </c>
-      <c r="B469" s="1">
-        <v>141</v>
-      </c>
       <c r="C469" t="s">
         <v>8</v>
       </c>
@@ -7019,9 +6750,6 @@
       <c r="A470">
         <v>69</v>
       </c>
-      <c r="B470" s="1">
-        <v>156.5</v>
-      </c>
       <c r="C470" t="s">
         <v>8</v>
       </c>
@@ -7033,9 +6761,6 @@
       <c r="A471">
         <v>70</v>
       </c>
-      <c r="B471" s="1">
-        <v>161.30000000000001</v>
-      </c>
       <c r="C471" t="s">
         <v>8</v>
       </c>
@@ -7047,9 +6772,6 @@
       <c r="A472">
         <v>71</v>
       </c>
-      <c r="B472" s="1">
-        <v>130.80000000000001</v>
-      </c>
       <c r="C472" t="s">
         <v>8</v>
       </c>
@@ -7061,9 +6783,6 @@
       <c r="A473">
         <v>72</v>
       </c>
-      <c r="B473" s="1">
-        <v>158.69999999999999</v>
-      </c>
       <c r="C473" t="s">
         <v>8</v>
       </c>
@@ -7075,9 +6794,6 @@
       <c r="A474">
         <v>73</v>
       </c>
-      <c r="B474" s="1">
-        <v>176.6</v>
-      </c>
       <c r="C474" t="s">
         <v>8</v>
       </c>
@@ -7089,9 +6805,6 @@
       <c r="A475">
         <v>74</v>
       </c>
-      <c r="B475" s="1">
-        <v>161.9</v>
-      </c>
       <c r="C475" t="s">
         <v>8</v>
       </c>
@@ -7103,9 +6816,6 @@
       <c r="A476">
         <v>75</v>
       </c>
-      <c r="B476" s="1">
-        <v>142.4</v>
-      </c>
       <c r="C476" t="s">
         <v>8</v>
       </c>
@@ -7117,9 +6827,6 @@
       <c r="A477">
         <v>76</v>
       </c>
-      <c r="B477" s="1">
-        <v>167.1</v>
-      </c>
       <c r="C477" t="s">
         <v>8</v>
       </c>
@@ -7131,9 +6838,6 @@
       <c r="A478">
         <v>77</v>
       </c>
-      <c r="B478" s="1">
-        <v>148.9</v>
-      </c>
       <c r="C478" t="s">
         <v>8</v>
       </c>
@@ -7145,9 +6849,6 @@
       <c r="A479">
         <v>78</v>
       </c>
-      <c r="B479" s="1">
-        <v>137.19999999999999</v>
-      </c>
       <c r="C479" t="s">
         <v>8</v>
       </c>
@@ -7159,9 +6860,6 @@
       <c r="A480">
         <v>79</v>
       </c>
-      <c r="B480" s="1">
-        <v>148.1</v>
-      </c>
       <c r="C480" t="s">
         <v>8</v>
       </c>
@@ -7173,9 +6871,6 @@
       <c r="A481">
         <v>80</v>
       </c>
-      <c r="B481" s="1">
-        <v>144.4</v>
-      </c>
       <c r="C481" t="s">
         <v>8</v>
       </c>
@@ -7187,9 +6882,6 @@
       <c r="A482">
         <v>81</v>
       </c>
-      <c r="B482" s="1">
-        <v>139.30000000000001</v>
-      </c>
       <c r="C482" t="s">
         <v>8</v>
       </c>
@@ -7201,9 +6893,6 @@
       <c r="A483">
         <v>82</v>
       </c>
-      <c r="B483" s="1">
-        <v>152.1</v>
-      </c>
       <c r="C483" t="s">
         <v>8</v>
       </c>
@@ -7215,9 +6904,6 @@
       <c r="A484">
         <v>83</v>
       </c>
-      <c r="B484" s="1">
-        <v>139.80000000000001</v>
-      </c>
       <c r="C484" t="s">
         <v>8</v>
       </c>
@@ -7229,9 +6915,6 @@
       <c r="A485">
         <v>84</v>
       </c>
-      <c r="B485" s="1">
-        <v>142.30000000000001</v>
-      </c>
       <c r="C485" t="s">
         <v>8</v>
       </c>
@@ -7243,9 +6926,6 @@
       <c r="A486">
         <v>85</v>
       </c>
-      <c r="B486" s="1">
-        <v>148.5</v>
-      </c>
       <c r="C486" t="s">
         <v>8</v>
       </c>
@@ -7257,9 +6937,6 @@
       <c r="A487">
         <v>86</v>
       </c>
-      <c r="B487" s="1">
-        <v>134.5</v>
-      </c>
       <c r="C487" t="s">
         <v>8</v>
       </c>
@@ -7271,9 +6948,6 @@
       <c r="A488">
         <v>87</v>
       </c>
-      <c r="B488" s="1">
-        <v>161.80000000000001</v>
-      </c>
       <c r="C488" t="s">
         <v>8</v>
       </c>
@@ -7285,9 +6959,6 @@
       <c r="A489">
         <v>88</v>
       </c>
-      <c r="B489" s="1">
-        <v>127.8</v>
-      </c>
       <c r="C489" t="s">
         <v>8</v>
       </c>
@@ -7299,9 +6970,6 @@
       <c r="A490">
         <v>89</v>
       </c>
-      <c r="B490" s="1">
-        <v>153.30000000000001</v>
-      </c>
       <c r="C490" t="s">
         <v>8</v>
       </c>
@@ -7313,9 +6981,6 @@
       <c r="A491">
         <v>90</v>
       </c>
-      <c r="B491" s="1">
-        <v>131.4</v>
-      </c>
       <c r="C491" t="s">
         <v>8</v>
       </c>
@@ -7327,9 +6992,6 @@
       <c r="A492">
         <v>91</v>
       </c>
-      <c r="B492" s="1">
-        <v>152.80000000000001</v>
-      </c>
       <c r="C492" t="s">
         <v>8</v>
       </c>
@@ -7341,9 +7003,6 @@
       <c r="A493">
         <v>92</v>
       </c>
-      <c r="B493" s="1">
-        <v>156.9</v>
-      </c>
       <c r="C493" t="s">
         <v>8</v>
       </c>
@@ -7355,9 +7014,6 @@
       <c r="A494">
         <v>93</v>
       </c>
-      <c r="B494" s="1">
-        <v>151.69999999999999</v>
-      </c>
       <c r="C494" t="s">
         <v>8</v>
       </c>
@@ -7369,9 +7025,6 @@
       <c r="A495">
         <v>94</v>
       </c>
-      <c r="B495" s="1">
-        <v>156.69999999999999</v>
-      </c>
       <c r="C495" t="s">
         <v>8</v>
       </c>
@@ -7383,9 +7036,6 @@
       <c r="A496">
         <v>95</v>
       </c>
-      <c r="B496" s="1">
-        <v>144.69999999999999</v>
-      </c>
       <c r="C496" t="s">
         <v>8</v>
       </c>
@@ -7397,9 +7047,6 @@
       <c r="A497">
         <v>96</v>
       </c>
-      <c r="B497" s="1">
-        <v>145.69999999999999</v>
-      </c>
       <c r="C497" t="s">
         <v>8</v>
       </c>
@@ -7411,9 +7058,6 @@
       <c r="A498">
         <v>97</v>
       </c>
-      <c r="B498" s="1">
-        <v>137.9</v>
-      </c>
       <c r="C498" t="s">
         <v>8</v>
       </c>
@@ -7425,9 +7069,6 @@
       <c r="A499">
         <v>98</v>
       </c>
-      <c r="B499" s="1">
-        <v>139.1</v>
-      </c>
       <c r="C499" t="s">
         <v>8</v>
       </c>
@@ -7439,9 +7080,6 @@
       <c r="A500">
         <v>99</v>
       </c>
-      <c r="B500" s="1">
-        <v>156.69999999999999</v>
-      </c>
       <c r="C500" t="s">
         <v>8</v>
       </c>
@@ -7453,9 +7091,6 @@
       <c r="A501">
         <v>100</v>
       </c>
-      <c r="B501" s="1">
-        <v>159.4</v>
-      </c>
       <c r="C501" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +7099,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Makespans30.xlsx
+++ b/data/Makespans30.xlsx
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>219.7</v>
+        <v>219.1</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>217.9</v>
+        <v>215.7</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -1531,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>225.5</v>
+        <v>228.6</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>204.5</v>
+        <v>229.2</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1559,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>216.3</v>
+        <v>223.4</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -1573,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>209.4</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>216.1</v>
+        <v>201.3</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -1601,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>211.2</v>
+        <v>229</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -1615,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="B110">
-        <v>212.9</v>
+        <v>199.6</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="B111">
-        <v>207.1</v>
+        <v>213.8</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="B112">
-        <v>207.8</v>
+        <v>211.3</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -1657,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>213.2</v>
+        <v>210.3</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -1671,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>201.1</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>214.7</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -1699,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>213.6</v>
+        <v>221.6</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -1713,7 +1713,7 @@
         <v>16</v>
       </c>
       <c r="B117">
-        <v>207.4</v>
+        <v>231.4</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -1727,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="B118">
-        <v>199.1</v>
+        <v>195.7</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -1741,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="B119">
-        <v>232.7</v>
+        <v>211.9</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -1755,7 +1755,7 @@
         <v>19</v>
       </c>
       <c r="B120">
-        <v>217.2</v>
+        <v>212.7</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -1769,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="B121">
-        <v>224.2</v>
+        <v>204.2</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B122">
-        <v>222.3</v>
+        <v>218.4</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -1797,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="B123">
-        <v>227.4</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="B124">
-        <v>207.7</v>
+        <v>208.7</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -1825,7 +1825,7 @@
         <v>24</v>
       </c>
       <c r="B125">
-        <v>207</v>
+        <v>206.5</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -1839,7 +1839,7 @@
         <v>25</v>
       </c>
       <c r="B126">
-        <v>217.8</v>
+        <v>222.1</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -1853,7 +1853,7 @@
         <v>26</v>
       </c>
       <c r="B127">
-        <v>205.6</v>
+        <v>223.2</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -1867,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="B128">
-        <v>193.7</v>
+        <v>229.5</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -1881,7 +1881,7 @@
         <v>28</v>
       </c>
       <c r="B129">
-        <v>207.6</v>
+        <v>208.2</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>29</v>
       </c>
       <c r="B130">
-        <v>201.6</v>
+        <v>217.4</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -1909,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="B131">
-        <v>199.9</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -1923,7 +1923,7 @@
         <v>31</v>
       </c>
       <c r="B132">
-        <v>202.5</v>
+        <v>211.6</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -1937,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="B133">
-        <v>218.9</v>
+        <v>202.6</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -1951,7 +1951,7 @@
         <v>33</v>
       </c>
       <c r="B134">
-        <v>212.9</v>
+        <v>230.9</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -1965,7 +1965,7 @@
         <v>34</v>
       </c>
       <c r="B135">
-        <v>224.4</v>
+        <v>208.2</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -1979,7 +1979,7 @@
         <v>35</v>
       </c>
       <c r="B136">
-        <v>220.1</v>
+        <v>219.5</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -1993,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="B137">
-        <v>216.3</v>
+        <v>219.9</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2007,7 +2007,7 @@
         <v>37</v>
       </c>
       <c r="B138">
-        <v>219.2</v>
+        <v>217.5</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2021,7 +2021,7 @@
         <v>38</v>
       </c>
       <c r="B139">
-        <v>203</v>
+        <v>227.4</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2035,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="B140">
-        <v>215.9</v>
+        <v>237.2</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2049,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="B141">
-        <v>226.9</v>
+        <v>226.2</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2063,7 +2063,7 @@
         <v>41</v>
       </c>
       <c r="B142">
-        <v>219.1</v>
+        <v>227.9</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2077,7 +2077,7 @@
         <v>42</v>
       </c>
       <c r="B143">
-        <v>193.4</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2091,7 +2091,7 @@
         <v>43</v>
       </c>
       <c r="B144">
-        <v>224.9</v>
+        <v>219.5</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2105,7 +2105,7 @@
         <v>44</v>
       </c>
       <c r="B145">
-        <v>214.3</v>
+        <v>210.1</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2119,7 +2119,7 @@
         <v>45</v>
       </c>
       <c r="B146">
-        <v>200.2</v>
+        <v>240</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2133,7 +2133,7 @@
         <v>46</v>
       </c>
       <c r="B147">
-        <v>210.1</v>
+        <v>213.8</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>47</v>
       </c>
       <c r="B148">
-        <v>219.4</v>
+        <v>213.3</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2161,7 +2161,7 @@
         <v>48</v>
       </c>
       <c r="B149">
-        <v>209.6</v>
+        <v>231</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2175,7 +2175,7 @@
         <v>49</v>
       </c>
       <c r="B150">
-        <v>223.6</v>
+        <v>220.4</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2189,7 +2189,7 @@
         <v>50</v>
       </c>
       <c r="B151">
-        <v>219.2</v>
+        <v>220.1</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B152">
-        <v>211.6</v>
+        <v>219.7</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2217,7 +2217,7 @@
         <v>52</v>
       </c>
       <c r="B153">
-        <v>213</v>
+        <v>218.7</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2231,7 +2231,7 @@
         <v>53</v>
       </c>
       <c r="B154">
-        <v>215.2</v>
+        <v>224.3</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2245,7 +2245,7 @@
         <v>54</v>
       </c>
       <c r="B155">
-        <v>215.2</v>
+        <v>220.1</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -2259,7 +2259,7 @@
         <v>55</v>
       </c>
       <c r="B156">
-        <v>213</v>
+        <v>202.6</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2273,7 +2273,7 @@
         <v>56</v>
       </c>
       <c r="B157">
-        <v>227.4</v>
+        <v>205.1</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2287,7 +2287,7 @@
         <v>57</v>
       </c>
       <c r="B158">
-        <v>230.4</v>
+        <v>218.4</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2301,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="B159">
-        <v>227.5</v>
+        <v>210.7</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2315,7 +2315,7 @@
         <v>59</v>
       </c>
       <c r="B160">
-        <v>205.1</v>
+        <v>217.9</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2329,7 +2329,7 @@
         <v>60</v>
       </c>
       <c r="B161">
-        <v>205.5</v>
+        <v>205.2</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -2343,7 +2343,7 @@
         <v>61</v>
       </c>
       <c r="B162">
-        <v>228.2</v>
+        <v>210.8</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -2357,7 +2357,7 @@
         <v>62</v>
       </c>
       <c r="B163">
-        <v>216.4</v>
+        <v>202.9</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>63</v>
       </c>
       <c r="B164">
-        <v>200.8</v>
+        <v>212.6</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2385,7 +2385,7 @@
         <v>64</v>
       </c>
       <c r="B165">
-        <v>234.1</v>
+        <v>213.9</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>65</v>
       </c>
       <c r="B166">
-        <v>204.1</v>
+        <v>210.9</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2413,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="B167">
-        <v>212.1</v>
+        <v>220</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2427,7 +2427,7 @@
         <v>67</v>
       </c>
       <c r="B168">
-        <v>227.3</v>
+        <v>216</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -2441,7 +2441,7 @@
         <v>68</v>
       </c>
       <c r="B169">
-        <v>214.2</v>
+        <v>211.1</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -2455,7 +2455,7 @@
         <v>69</v>
       </c>
       <c r="B170">
-        <v>225.7</v>
+        <v>209.4</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -2469,7 +2469,7 @@
         <v>70</v>
       </c>
       <c r="B171">
-        <v>209.7</v>
+        <v>210.5</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -2483,7 +2483,7 @@
         <v>71</v>
       </c>
       <c r="B172">
-        <v>215</v>
+        <v>212.4</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -2497,7 +2497,7 @@
         <v>72</v>
       </c>
       <c r="B173">
-        <v>207.2</v>
+        <v>210.8</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2511,7 +2511,7 @@
         <v>73</v>
       </c>
       <c r="B174">
-        <v>219.4</v>
+        <v>219.6</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -2525,7 +2525,7 @@
         <v>74</v>
       </c>
       <c r="B175">
-        <v>217.5</v>
+        <v>229.1</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -2539,7 +2539,7 @@
         <v>75</v>
       </c>
       <c r="B176">
-        <v>211.2</v>
+        <v>208.7</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -2553,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="B177">
-        <v>216.5</v>
+        <v>206.9</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -2567,7 +2567,7 @@
         <v>77</v>
       </c>
       <c r="B178">
-        <v>205.1</v>
+        <v>224.5</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -2581,7 +2581,7 @@
         <v>78</v>
       </c>
       <c r="B179">
-        <v>224.1</v>
+        <v>213.8</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -2595,7 +2595,7 @@
         <v>79</v>
       </c>
       <c r="B180">
-        <v>205.8</v>
+        <v>213.5</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -2609,7 +2609,7 @@
         <v>80</v>
       </c>
       <c r="B181">
-        <v>204.7</v>
+        <v>226.2</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -2623,7 +2623,7 @@
         <v>81</v>
       </c>
       <c r="B182">
-        <v>232.6</v>
+        <v>212.5</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -2637,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="B183">
-        <v>214.7</v>
+        <v>225.2</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -2651,7 +2651,7 @@
         <v>83</v>
       </c>
       <c r="B184">
-        <v>203.6</v>
+        <v>196.7</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -2665,7 +2665,7 @@
         <v>84</v>
       </c>
       <c r="B185">
-        <v>235.5</v>
+        <v>211.7</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -2679,7 +2679,7 @@
         <v>85</v>
       </c>
       <c r="B186">
-        <v>206.8</v>
+        <v>204.3</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -2693,7 +2693,7 @@
         <v>86</v>
       </c>
       <c r="B187">
-        <v>202.6</v>
+        <v>210.7</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -2707,7 +2707,7 @@
         <v>87</v>
       </c>
       <c r="B188">
-        <v>211.4</v>
+        <v>209.3</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -2721,7 +2721,7 @@
         <v>88</v>
       </c>
       <c r="B189">
-        <v>215.5</v>
+        <v>211.8</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -2735,7 +2735,7 @@
         <v>89</v>
       </c>
       <c r="B190">
-        <v>210.6</v>
+        <v>206.8</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -2749,7 +2749,7 @@
         <v>90</v>
       </c>
       <c r="B191">
-        <v>198.6</v>
+        <v>211.8</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -2763,7 +2763,7 @@
         <v>91</v>
       </c>
       <c r="B192">
-        <v>208.6</v>
+        <v>213.2</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -2777,7 +2777,7 @@
         <v>92</v>
       </c>
       <c r="B193">
-        <v>226.1</v>
+        <v>221.3</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -2791,7 +2791,7 @@
         <v>93</v>
       </c>
       <c r="B194">
-        <v>203.4</v>
+        <v>234.2</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -2805,7 +2805,7 @@
         <v>94</v>
       </c>
       <c r="B195">
-        <v>199.8</v>
+        <v>219.1</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -2819,7 +2819,7 @@
         <v>95</v>
       </c>
       <c r="B196">
-        <v>196.3</v>
+        <v>221.5</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -2833,7 +2833,7 @@
         <v>96</v>
       </c>
       <c r="B197">
-        <v>197.7</v>
+        <v>212.5</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -2847,7 +2847,7 @@
         <v>97</v>
       </c>
       <c r="B198">
-        <v>218.7</v>
+        <v>205.2</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -2861,7 +2861,7 @@
         <v>98</v>
       </c>
       <c r="B199">
-        <v>210</v>
+        <v>228.7</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -2875,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="B200">
-        <v>210.9</v>
+        <v>209.7</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -2889,7 +2889,7 @@
         <v>100</v>
       </c>
       <c r="B201">
-        <v>223.5</v>
+        <v>217.9</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B202">
-        <v>228.4</v>
+        <v>224.6</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="B203">
-        <v>226.7</v>
+        <v>215.3</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -2931,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>235.4</v>
+        <v>236</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="B205">
-        <v>221.6</v>
+        <v>231.3</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -2959,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>220.3</v>
+        <v>228.9</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -2973,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="B207">
-        <v>215</v>
+        <v>216.9</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -2987,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="B208">
-        <v>224.5</v>
+        <v>211.5</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3001,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="B209">
-        <v>216.7</v>
+        <v>236.9</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -3015,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="B210">
-        <v>229.6</v>
+        <v>206.4</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -3029,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="B211">
-        <v>217.7</v>
+        <v>222.6</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3043,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="B212">
-        <v>213.3</v>
+        <v>218.3</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -3057,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="B213">
-        <v>217.6</v>
+        <v>216.9</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -3071,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="B214">
-        <v>204.2</v>
+        <v>235.8</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -3085,7 +3085,7 @@
         <v>14</v>
       </c>
       <c r="B215">
-        <v>230.7</v>
+        <v>219.2</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="B216">
-        <v>230</v>
+        <v>229.5</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -3113,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="B217">
-        <v>221.3</v>
+        <v>238.6</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3127,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="B218">
-        <v>207.1</v>
+        <v>204.8</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -3141,7 +3141,7 @@
         <v>18</v>
       </c>
       <c r="B219">
-        <v>242.9</v>
+        <v>218.7</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -3155,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="B220">
-        <v>224</v>
+        <v>219.6</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -3169,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="B221">
-        <v>228.8</v>
+        <v>214</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -3183,7 +3183,7 @@
         <v>21</v>
       </c>
       <c r="B222">
-        <v>224.7</v>
+        <v>226.7</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -3197,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="B223">
-        <v>236.2</v>
+        <v>214</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -3211,7 +3211,7 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>214.1</v>
+        <v>213.2</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -3225,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>213</v>
+        <v>223.9</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3239,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="B226">
-        <v>220.3</v>
+        <v>226.5</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -3253,7 +3253,7 @@
         <v>26</v>
       </c>
       <c r="B227">
-        <v>219</v>
+        <v>231.1</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -3267,7 +3267,7 @@
         <v>27</v>
       </c>
       <c r="B228">
-        <v>199.3</v>
+        <v>240.4</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -3281,7 +3281,7 @@
         <v>28</v>
       </c>
       <c r="B229">
-        <v>214.7</v>
+        <v>221.1</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="B230">
-        <v>218</v>
+        <v>220.8</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -3309,7 +3309,7 @@
         <v>30</v>
       </c>
       <c r="B231">
-        <v>208.4</v>
+        <v>221.9</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -3323,7 +3323,7 @@
         <v>31</v>
       </c>
       <c r="B232">
-        <v>210.3</v>
+        <v>220.2</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -3337,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="B233">
-        <v>224.3</v>
+        <v>211.2</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -3351,7 +3351,7 @@
         <v>33</v>
       </c>
       <c r="B234">
-        <v>226.5</v>
+        <v>238.5</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -3365,7 +3365,7 @@
         <v>34</v>
       </c>
       <c r="B235">
-        <v>225.3</v>
+        <v>218.5</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -3379,7 +3379,7 @@
         <v>35</v>
       </c>
       <c r="B236">
-        <v>226</v>
+        <v>224.5</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -3393,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="B237">
-        <v>222.9</v>
+        <v>222.6</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -3407,7 +3407,7 @@
         <v>37</v>
       </c>
       <c r="B238">
-        <v>230.1</v>
+        <v>225.6</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -3421,7 +3421,7 @@
         <v>38</v>
       </c>
       <c r="B239">
-        <v>214.2</v>
+        <v>233.1</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -3435,7 +3435,7 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>221</v>
+        <v>248.2</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -3449,7 +3449,7 @@
         <v>40</v>
       </c>
       <c r="B241">
-        <v>228.2</v>
+        <v>230.7</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -3463,7 +3463,7 @@
         <v>41</v>
       </c>
       <c r="B242">
-        <v>220.6</v>
+        <v>240.1</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -3477,7 +3477,7 @@
         <v>42</v>
       </c>
       <c r="B243">
-        <v>202.9</v>
+        <v>229.7</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -3491,7 +3491,7 @@
         <v>43</v>
       </c>
       <c r="B244">
-        <v>231.6</v>
+        <v>230.5</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -3505,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="B245">
-        <v>218.9</v>
+        <v>219.5</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -3519,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="B246">
-        <v>204.9</v>
+        <v>241.1</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -3533,7 +3533,7 @@
         <v>46</v>
       </c>
       <c r="B247">
-        <v>220.5</v>
+        <v>227.6</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -3547,7 +3547,7 @@
         <v>47</v>
       </c>
       <c r="B248">
-        <v>229.7</v>
+        <v>224.4</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>48</v>
       </c>
       <c r="B249">
-        <v>218</v>
+        <v>230.5</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
@@ -3575,7 +3575,7 @@
         <v>49</v>
       </c>
       <c r="B250">
-        <v>233.2</v>
+        <v>236.1</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -3589,7 +3589,7 @@
         <v>50</v>
       </c>
       <c r="B251">
-        <v>224.3</v>
+        <v>228.9</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -3603,7 +3603,7 @@
         <v>51</v>
       </c>
       <c r="B252">
-        <v>216.1</v>
+        <v>224.9</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
@@ -3617,7 +3617,7 @@
         <v>52</v>
       </c>
       <c r="B253">
-        <v>218.7</v>
+        <v>226.2</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -3631,7 +3631,7 @@
         <v>53</v>
       </c>
       <c r="B254">
-        <v>214.2</v>
+        <v>235.1</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -3645,7 +3645,7 @@
         <v>54</v>
       </c>
       <c r="B255">
-        <v>222</v>
+        <v>225.8</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -3659,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="B256">
-        <v>223.1</v>
+        <v>215.1</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -3673,7 +3673,7 @@
         <v>56</v>
       </c>
       <c r="B257">
-        <v>230.6</v>
+        <v>208.5</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -3687,7 +3687,7 @@
         <v>57</v>
       </c>
       <c r="B258">
-        <v>241.1</v>
+        <v>223.3</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -3701,7 +3701,7 @@
         <v>58</v>
       </c>
       <c r="B259">
-        <v>235.2</v>
+        <v>223</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -3715,7 +3715,7 @@
         <v>59</v>
       </c>
       <c r="B260">
-        <v>215.3</v>
+        <v>223.1</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -3729,7 +3729,7 @@
         <v>60</v>
       </c>
       <c r="B261">
-        <v>214.1</v>
+        <v>219.1</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -3743,7 +3743,7 @@
         <v>61</v>
       </c>
       <c r="B262">
-        <v>234.1</v>
+        <v>214.6</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -3757,7 +3757,7 @@
         <v>62</v>
       </c>
       <c r="B263">
-        <v>226.6</v>
+        <v>211.3</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -3771,7 +3771,7 @@
         <v>63</v>
       </c>
       <c r="B264">
-        <v>213.2</v>
+        <v>224.2</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -3785,7 +3785,7 @@
         <v>64</v>
       </c>
       <c r="B265">
-        <v>236.5</v>
+        <v>223.7</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
         <v>65</v>
       </c>
       <c r="B266">
-        <v>210.9</v>
+        <v>222</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -3813,7 +3813,7 @@
         <v>66</v>
       </c>
       <c r="B267">
-        <v>220.4</v>
+        <v>227.7</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -3827,7 +3827,7 @@
         <v>67</v>
       </c>
       <c r="B268">
-        <v>232.3</v>
+        <v>223.1</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
@@ -3841,7 +3841,7 @@
         <v>68</v>
       </c>
       <c r="B269">
-        <v>229.9</v>
+        <v>222.3</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -3855,7 +3855,7 @@
         <v>69</v>
       </c>
       <c r="B270">
-        <v>234.2</v>
+        <v>219.6</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -3869,7 +3869,7 @@
         <v>70</v>
       </c>
       <c r="B271">
-        <v>212.6</v>
+        <v>213.9</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -3883,7 +3883,7 @@
         <v>71</v>
       </c>
       <c r="B272">
-        <v>220.4</v>
+        <v>218.7</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -3897,7 +3897,7 @@
         <v>72</v>
       </c>
       <c r="B273">
-        <v>218.9</v>
+        <v>220.2</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -3911,7 +3911,7 @@
         <v>73</v>
       </c>
       <c r="B274">
-        <v>230.5</v>
+        <v>223.2</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -3925,7 +3925,7 @@
         <v>74</v>
       </c>
       <c r="B275">
-        <v>220.2</v>
+        <v>234.2</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -3939,7 +3939,7 @@
         <v>75</v>
       </c>
       <c r="B276">
-        <v>225.2</v>
+        <v>219.8</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -3953,7 +3953,7 @@
         <v>76</v>
       </c>
       <c r="B277">
-        <v>219.6</v>
+        <v>220.2</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -3967,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="B278">
-        <v>209.8</v>
+        <v>229</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -3981,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="B279">
-        <v>230.9</v>
+        <v>218.4</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -3995,7 +3995,7 @@
         <v>79</v>
       </c>
       <c r="B280">
-        <v>218.9</v>
+        <v>225.2</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -4009,7 +4009,7 @@
         <v>80</v>
       </c>
       <c r="B281">
-        <v>216.8</v>
+        <v>227.4</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -4023,7 +4023,7 @@
         <v>81</v>
       </c>
       <c r="B282">
-        <v>234.6</v>
+        <v>219.7</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -4037,7 +4037,7 @@
         <v>82</v>
       </c>
       <c r="B283">
-        <v>222.1</v>
+        <v>236.8</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
@@ -4051,7 +4051,7 @@
         <v>83</v>
       </c>
       <c r="B284">
-        <v>207.6</v>
+        <v>204.5</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
@@ -4065,7 +4065,7 @@
         <v>84</v>
       </c>
       <c r="B285">
-        <v>243.5</v>
+        <v>222</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -4079,7 +4079,7 @@
         <v>85</v>
       </c>
       <c r="B286">
-        <v>211.2</v>
+        <v>213</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -4093,7 +4093,7 @@
         <v>86</v>
       </c>
       <c r="B287">
-        <v>212.2</v>
+        <v>224.9</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -4107,7 +4107,7 @@
         <v>87</v>
       </c>
       <c r="B288">
-        <v>221.8</v>
+        <v>215.5</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -4121,7 +4121,7 @@
         <v>88</v>
       </c>
       <c r="B289">
-        <v>224.8</v>
+        <v>219.2</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -4135,7 +4135,7 @@
         <v>89</v>
       </c>
       <c r="B290">
-        <v>221.4</v>
+        <v>219.3</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -4149,7 +4149,7 @@
         <v>90</v>
       </c>
       <c r="B291">
-        <v>210.3</v>
+        <v>219.1</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -4163,7 +4163,7 @@
         <v>91</v>
       </c>
       <c r="B292">
-        <v>216.3</v>
+        <v>213.5</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -4177,7 +4177,7 @@
         <v>92</v>
       </c>
       <c r="B293">
-        <v>232.4</v>
+        <v>226.9</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -4191,7 +4191,7 @@
         <v>93</v>
       </c>
       <c r="B294">
-        <v>213</v>
+        <v>243.3</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -4205,7 +4205,7 @@
         <v>94</v>
       </c>
       <c r="B295">
-        <v>209.4</v>
+        <v>225.7</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -4219,7 +4219,7 @@
         <v>95</v>
       </c>
       <c r="B296">
-        <v>205.8</v>
+        <v>234.9</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>96</v>
       </c>
       <c r="B297">
-        <v>210.8</v>
+        <v>220.2</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -4247,7 +4247,7 @@
         <v>97</v>
       </c>
       <c r="B298">
-        <v>224.7</v>
+        <v>214.8</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -4261,7 +4261,7 @@
         <v>98</v>
       </c>
       <c r="B299">
-        <v>216.3</v>
+        <v>236.3</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -4275,7 +4275,7 @@
         <v>99</v>
       </c>
       <c r="B300">
-        <v>219.3</v>
+        <v>212.8</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="B301">
-        <v>238.3</v>
+        <v>218.5</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <v>295.5</v>
+        <v>299.1</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -4317,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="B303">
-        <v>302.6</v>
+        <v>292.1</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -4331,7 +4331,7 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>315.8</v>
+        <v>314.6</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -4345,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>304</v>
+        <v>311.1</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -4359,7 +4359,7 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>308.1</v>
+        <v>324</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -4373,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>299.9</v>
+        <v>292.7</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -4387,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="B308">
-        <v>301.9</v>
+        <v>286.1</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -4401,7 +4401,7 @@
         <v>8</v>
       </c>
       <c r="B309">
-        <v>294.7</v>
+        <v>327.6</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -4415,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>303.4</v>
+        <v>282.1</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -4429,7 +4429,7 @@
         <v>10</v>
       </c>
       <c r="B311">
-        <v>294.7</v>
+        <v>302.1</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -4443,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>294.9</v>
+        <v>298.6</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -4457,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>312.2</v>
+        <v>305.4</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -4471,7 +4471,7 @@
         <v>13</v>
       </c>
       <c r="B314">
-        <v>281.6</v>
+        <v>322.1</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -4485,7 +4485,7 @@
         <v>14</v>
       </c>
       <c r="B315">
-        <v>301.4</v>
+        <v>295.8</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -4499,7 +4499,7 @@
         <v>15</v>
       </c>
       <c r="B316">
-        <v>304.7</v>
+        <v>307.2</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -4513,7 +4513,7 @@
         <v>16</v>
       </c>
       <c r="B317">
-        <v>314</v>
+        <v>327.5</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -4527,7 +4527,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>289.1</v>
+        <v>287.1</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>18</v>
       </c>
       <c r="B319">
-        <v>313.5</v>
+        <v>294</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -4555,7 +4555,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>305.3</v>
+        <v>302.8</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
@@ -4569,7 +4569,7 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>313.6</v>
+        <v>283.8</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -4583,7 +4583,7 @@
         <v>21</v>
       </c>
       <c r="B322">
-        <v>311.9</v>
+        <v>315.7</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -4597,7 +4597,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>321.6</v>
+        <v>300.3</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -4611,7 +4611,7 @@
         <v>23</v>
       </c>
       <c r="B324">
-        <v>291.5</v>
+        <v>300.6</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -4625,7 +4625,7 @@
         <v>24</v>
       </c>
       <c r="B325">
-        <v>292.5</v>
+        <v>300.2</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -4639,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="B326">
-        <v>297.8</v>
+        <v>307.2</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -4653,7 +4653,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <v>305.2</v>
+        <v>321.8</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -4667,7 +4667,7 @@
         <v>27</v>
       </c>
       <c r="B328">
-        <v>283.9</v>
+        <v>316.2</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -4681,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="B329">
-        <v>296</v>
+        <v>308.4</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
@@ -4695,7 +4695,7 @@
         <v>29</v>
       </c>
       <c r="B330">
-        <v>295.4</v>
+        <v>313</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -4709,7 +4709,7 @@
         <v>30</v>
       </c>
       <c r="B331">
-        <v>283.8</v>
+        <v>309.6</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -4723,7 +4723,7 @@
         <v>31</v>
       </c>
       <c r="B332">
-        <v>301.4</v>
+        <v>299.8</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -4737,7 +4737,7 @@
         <v>32</v>
       </c>
       <c r="B333">
-        <v>303.9</v>
+        <v>290.7</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
@@ -4751,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>313.1</v>
+        <v>316.1</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -4765,7 +4765,7 @@
         <v>34</v>
       </c>
       <c r="B335">
-        <v>317.1</v>
+        <v>315.6</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -4779,7 +4779,7 @@
         <v>35</v>
       </c>
       <c r="B336">
-        <v>314.9</v>
+        <v>307.7</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
@@ -4793,7 +4793,7 @@
         <v>36</v>
       </c>
       <c r="B337">
-        <v>307.6</v>
+        <v>299.4</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -4807,7 +4807,7 @@
         <v>37</v>
       </c>
       <c r="B338">
-        <v>315.2</v>
+        <v>321.7</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
@@ -4821,7 +4821,7 @@
         <v>38</v>
       </c>
       <c r="B339">
-        <v>285.2</v>
+        <v>311.9</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -4835,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="B340">
-        <v>302</v>
+        <v>325.2</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -4849,7 +4849,7 @@
         <v>40</v>
       </c>
       <c r="B341">
-        <v>301.6</v>
+        <v>313.7</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -4863,7 +4863,7 @@
         <v>41</v>
       </c>
       <c r="B342">
-        <v>307</v>
+        <v>315.3</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -4877,7 +4877,7 @@
         <v>42</v>
       </c>
       <c r="B343">
-        <v>284.8</v>
+        <v>305.7</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -4891,7 +4891,7 @@
         <v>43</v>
       </c>
       <c r="B344">
-        <v>306.5</v>
+        <v>301.8</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -4905,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="B345">
-        <v>301.9</v>
+        <v>289.8</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -4919,7 +4919,7 @@
         <v>45</v>
       </c>
       <c r="B346">
-        <v>294.6</v>
+        <v>333.8</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
@@ -4933,7 +4933,7 @@
         <v>46</v>
       </c>
       <c r="B347">
-        <v>301.7</v>
+        <v>304.1</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -4947,7 +4947,7 @@
         <v>47</v>
       </c>
       <c r="B348">
-        <v>312.6</v>
+        <v>312</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -4961,7 +4961,7 @@
         <v>48</v>
       </c>
       <c r="B349">
-        <v>300.3</v>
+        <v>320.2</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -4975,7 +4975,7 @@
         <v>49</v>
       </c>
       <c r="B350">
-        <v>323.1</v>
+        <v>304.9</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -4989,7 +4989,7 @@
         <v>50</v>
       </c>
       <c r="B351">
-        <v>307.3</v>
+        <v>308.6</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
@@ -5003,7 +5003,7 @@
         <v>51</v>
       </c>
       <c r="B352">
-        <v>304.8</v>
+        <v>305.1</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -5017,7 +5017,7 @@
         <v>52</v>
       </c>
       <c r="B353">
-        <v>293</v>
+        <v>297.7</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
@@ -5031,7 +5031,7 @@
         <v>53</v>
       </c>
       <c r="B354">
-        <v>304.6</v>
+        <v>312</v>
       </c>
       <c r="C354" t="s">
         <v>7</v>
@@ -5045,7 +5045,7 @@
         <v>54</v>
       </c>
       <c r="B355">
-        <v>303.1</v>
+        <v>310.2</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -5059,7 +5059,7 @@
         <v>55</v>
       </c>
       <c r="B356">
-        <v>304.2</v>
+        <v>291.3</v>
       </c>
       <c r="C356" t="s">
         <v>7</v>
@@ -5073,7 +5073,7 @@
         <v>56</v>
       </c>
       <c r="B357">
-        <v>317</v>
+        <v>282.6</v>
       </c>
       <c r="C357" t="s">
         <v>7</v>
@@ -5087,7 +5087,7 @@
         <v>57</v>
       </c>
       <c r="B358">
-        <v>328</v>
+        <v>299.4</v>
       </c>
       <c r="C358" t="s">
         <v>7</v>
@@ -5101,7 +5101,7 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>315.2</v>
+        <v>299.1</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -5115,7 +5115,7 @@
         <v>59</v>
       </c>
       <c r="B360">
-        <v>282.1</v>
+        <v>305.1</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
@@ -5129,7 +5129,7 @@
         <v>60</v>
       </c>
       <c r="B361">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
@@ -5143,7 +5143,7 @@
         <v>61</v>
       </c>
       <c r="B362">
-        <v>317.5</v>
+        <v>304.2</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -5157,7 +5157,7 @@
         <v>62</v>
       </c>
       <c r="B363">
-        <v>302.4</v>
+        <v>296.6</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -5171,7 +5171,7 @@
         <v>63</v>
       </c>
       <c r="B364">
-        <v>298.2</v>
+        <v>296.4</v>
       </c>
       <c r="C364" t="s">
         <v>7</v>
@@ -5185,7 +5185,7 @@
         <v>64</v>
       </c>
       <c r="B365">
-        <v>327.5</v>
+        <v>309.1</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
@@ -5199,7 +5199,7 @@
         <v>65</v>
       </c>
       <c r="B366">
-        <v>290.3</v>
+        <v>308.6</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -5213,7 +5213,7 @@
         <v>66</v>
       </c>
       <c r="B367">
-        <v>299.6</v>
+        <v>311.9</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
@@ -5227,7 +5227,7 @@
         <v>67</v>
       </c>
       <c r="B368">
-        <v>329.3</v>
+        <v>297.8</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
@@ -5241,7 +5241,7 @@
         <v>68</v>
       </c>
       <c r="B369">
-        <v>307.6</v>
+        <v>307.1</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
@@ -5255,7 +5255,7 @@
         <v>69</v>
       </c>
       <c r="B370">
-        <v>318.5</v>
+        <v>286.4</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
@@ -5269,7 +5269,7 @@
         <v>70</v>
       </c>
       <c r="B371">
-        <v>291.8</v>
+        <v>308.4</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -5283,7 +5283,7 @@
         <v>71</v>
       </c>
       <c r="B372">
-        <v>298.4</v>
+        <v>297.7</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -5297,7 +5297,7 @@
         <v>72</v>
       </c>
       <c r="B373">
-        <v>303.4</v>
+        <v>293</v>
       </c>
       <c r="C373" t="s">
         <v>7</v>
@@ -5311,7 +5311,7 @@
         <v>73</v>
       </c>
       <c r="B374">
-        <v>313.8</v>
+        <v>332.5</v>
       </c>
       <c r="C374" t="s">
         <v>7</v>
@@ -5325,7 +5325,7 @@
         <v>74</v>
       </c>
       <c r="B375">
-        <v>307.9</v>
+        <v>311.8</v>
       </c>
       <c r="C375" t="s">
         <v>7</v>
@@ -5339,7 +5339,7 @@
         <v>75</v>
       </c>
       <c r="B376">
-        <v>298.1</v>
+        <v>295.5</v>
       </c>
       <c r="C376" t="s">
         <v>7</v>
@@ -5353,7 +5353,7 @@
         <v>76</v>
       </c>
       <c r="B377">
-        <v>299.9</v>
+        <v>311</v>
       </c>
       <c r="C377" t="s">
         <v>7</v>
@@ -5367,7 +5367,7 @@
         <v>77</v>
       </c>
       <c r="B378">
-        <v>299.8</v>
+        <v>312.3</v>
       </c>
       <c r="C378" t="s">
         <v>7</v>
@@ -5381,7 +5381,7 @@
         <v>78</v>
       </c>
       <c r="B379">
-        <v>318.1</v>
+        <v>298.9</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5395,7 +5395,7 @@
         <v>79</v>
       </c>
       <c r="B380">
-        <v>287.8</v>
+        <v>320.1</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -5409,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="B381">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -5423,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="B382">
-        <v>314.9</v>
+        <v>300.4</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -5437,7 +5437,7 @@
         <v>82</v>
       </c>
       <c r="B383">
-        <v>297.3</v>
+        <v>312.2</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -5451,7 +5451,7 @@
         <v>83</v>
       </c>
       <c r="B384">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C384" t="s">
         <v>7</v>
@@ -5465,7 +5465,7 @@
         <v>84</v>
       </c>
       <c r="B385">
-        <v>314.4</v>
+        <v>309.9</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -5479,7 +5479,7 @@
         <v>85</v>
       </c>
       <c r="B386">
-        <v>292.1</v>
+        <v>291.5</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -5493,7 +5493,7 @@
         <v>86</v>
       </c>
       <c r="B387">
-        <v>298.5</v>
+        <v>308.6</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -5507,7 +5507,7 @@
         <v>87</v>
       </c>
       <c r="B388">
-        <v>308.6</v>
+        <v>298.7</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -5521,7 +5521,7 @@
         <v>88</v>
       </c>
       <c r="B389">
-        <v>294.8</v>
+        <v>296.3</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -5535,7 +5535,7 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>303.2</v>
+        <v>296.4</v>
       </c>
       <c r="C390" t="s">
         <v>7</v>
@@ -5549,7 +5549,7 @@
         <v>90</v>
       </c>
       <c r="B391">
-        <v>294.3</v>
+        <v>302</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -5563,7 +5563,7 @@
         <v>91</v>
       </c>
       <c r="B392">
-        <v>296.5</v>
+        <v>302.2</v>
       </c>
       <c r="C392" t="s">
         <v>7</v>
@@ -5577,7 +5577,7 @@
         <v>92</v>
       </c>
       <c r="B393">
-        <v>313.3</v>
+        <v>308.2</v>
       </c>
       <c r="C393" t="s">
         <v>7</v>
@@ -5591,7 +5591,7 @@
         <v>93</v>
       </c>
       <c r="B394">
-        <v>295.2</v>
+        <v>314.9</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -5605,7 +5605,7 @@
         <v>94</v>
       </c>
       <c r="B395">
-        <v>289.7</v>
+        <v>308.6</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -5619,7 +5619,7 @@
         <v>95</v>
       </c>
       <c r="B396">
-        <v>285.8</v>
+        <v>323</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -5633,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="B397">
-        <v>292.2</v>
+        <v>305.2</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -5647,7 +5647,7 @@
         <v>97</v>
       </c>
       <c r="B398">
-        <v>304.1</v>
+        <v>292.5</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -5661,7 +5661,7 @@
         <v>98</v>
       </c>
       <c r="B399">
-        <v>296.5</v>
+        <v>309.7</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -5675,7 +5675,7 @@
         <v>99</v>
       </c>
       <c r="B400">
-        <v>299</v>
+        <v>297.8</v>
       </c>
       <c r="C400" t="s">
         <v>7</v>
@@ -5689,7 +5689,7 @@
         <v>100</v>
       </c>
       <c r="B401">
-        <v>323</v>
+        <v>313.6</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
